--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H2">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I2">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J2">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>12.53040177797689</v>
+        <v>93.59128453048164</v>
       </c>
       <c r="R2">
-        <v>112.773616001792</v>
+        <v>842.3215607743348</v>
       </c>
       <c r="S2">
-        <v>0.0005188328942066963</v>
+        <v>0.005735741964420156</v>
       </c>
       <c r="T2">
-        <v>0.000539581896969186</v>
+        <v>0.005869765930059263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H3">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I3">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J3">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>5.508454607733333</v>
+        <v>70.75439579717499</v>
       </c>
       <c r="R3">
-        <v>49.5760914696</v>
+        <v>636.7895621745749</v>
       </c>
       <c r="S3">
-        <v>0.0002280826662525369</v>
+        <v>0.004336183215958273</v>
       </c>
       <c r="T3">
-        <v>0.0002372040768743248</v>
+        <v>0.004437504452852377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H4">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I4">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J4">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>7.148631908906665</v>
+        <v>95.17038794033432</v>
       </c>
       <c r="R4">
-        <v>64.33768718016</v>
+        <v>856.533491463009</v>
       </c>
       <c r="S4">
-        <v>0.0002959957269235479</v>
+        <v>0.005832517318444718</v>
       </c>
       <c r="T4">
-        <v>0.0003078330954177188</v>
+        <v>0.005968802581192895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H5">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I5">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J5">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>3.502021084362667</v>
+        <v>21.2249856654965</v>
       </c>
       <c r="R5">
-        <v>21.012126506176</v>
+        <v>127.349913992979</v>
       </c>
       <c r="S5">
-        <v>0.0001450044273892481</v>
+        <v>0.001300773267367164</v>
       </c>
       <c r="T5">
-        <v>0.0001005355993850441</v>
+        <v>0.0008874451529707798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H6">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I6">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J6">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>6.751736860302223</v>
+        <v>116.7589013663376</v>
       </c>
       <c r="R6">
-        <v>60.76563174272</v>
+        <v>1050.830112297039</v>
       </c>
       <c r="S6">
-        <v>0.0002795619197390349</v>
+        <v>0.007155569384971772</v>
       </c>
       <c r="T6">
-        <v>0.0002907420725584151</v>
+        <v>0.007322769686402462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.291067</v>
       </c>
       <c r="I7">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J7">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>119.7342509878782</v>
+        <v>69.62499251362055</v>
       </c>
       <c r="R7">
-        <v>1077.608258890904</v>
+        <v>626.6249326225849</v>
       </c>
       <c r="S7">
-        <v>0.004957707588027703</v>
+        <v>0.004266967734615805</v>
       </c>
       <c r="T7">
-        <v>0.005155974678623201</v>
+        <v>0.004366671650969571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.291067</v>
       </c>
       <c r="I8">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J8">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
         <v>52.63603659675834</v>
@@ -948,10 +948,10 @@
         <v>473.724329370825</v>
       </c>
       <c r="S8">
-        <v>0.002179443859099861</v>
+        <v>0.003225799554556323</v>
       </c>
       <c r="T8">
-        <v>0.00226660349596579</v>
+        <v>0.003301175059824928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.291067</v>
       </c>
       <c r="I9">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J9">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>68.30875037904666</v>
+        <v>70.79972864039544</v>
       </c>
       <c r="R9">
-        <v>614.77875341142</v>
+        <v>637.1975577635591</v>
       </c>
       <c r="S9">
-        <v>0.002828387092989583</v>
+        <v>0.004338961439299586</v>
       </c>
       <c r="T9">
-        <v>0.002941499064611126</v>
+        <v>0.0044403475934288</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.291067</v>
       </c>
       <c r="I10">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J10">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>33.46356157684367</v>
+        <v>15.78981927083817</v>
       </c>
       <c r="R10">
-        <v>200.781369461062</v>
+        <v>94.73891562502899</v>
       </c>
       <c r="S10">
-        <v>0.001385589768868609</v>
+        <v>0.0009676790895295392</v>
       </c>
       <c r="T10">
-        <v>0.0009606678942364438</v>
+        <v>0.0006601935473138591</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.291067</v>
       </c>
       <c r="I11">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J11">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>64.51621984351556</v>
+        <v>86.85998567400988</v>
       </c>
       <c r="R11">
-        <v>580.6459785916401</v>
+        <v>781.739871066089</v>
       </c>
       <c r="S11">
-        <v>0.002671353852636888</v>
+        <v>0.00532321430738662</v>
       </c>
       <c r="T11">
-        <v>0.002778185800045891</v>
+        <v>0.005447598963434326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H12">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="I12">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J12">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N12">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O12">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P12">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q12">
-        <v>3174.846637915496</v>
+        <v>2344.834720011474</v>
       </c>
       <c r="R12">
-        <v>28573.61974123946</v>
+        <v>21103.51248010327</v>
       </c>
       <c r="S12">
-        <v>0.1314574663285896</v>
+        <v>0.143703198120108</v>
       </c>
       <c r="T12">
-        <v>0.136714672189009</v>
+        <v>0.1470610326612276</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H13">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="I13">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J13">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P13">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q13">
-        <v>1395.685381949175</v>
+        <v>1772.679632414017</v>
       </c>
       <c r="R13">
-        <v>12561.16843754258</v>
+        <v>15954.11669172615</v>
       </c>
       <c r="S13">
-        <v>0.05778964624992126</v>
+        <v>0.1086386730144567</v>
       </c>
       <c r="T13">
-        <v>0.06010075170038876</v>
+        <v>0.111177173851748</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H14">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="I14">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J14">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N14">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O14">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P14">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q14">
-        <v>1811.25955766058</v>
+        <v>2384.397554526318</v>
       </c>
       <c r="R14">
-        <v>16301.33601894522</v>
+        <v>21459.57799073686</v>
       </c>
       <c r="S14">
-        <v>0.07499687999727542</v>
+        <v>0.1461278064722275</v>
       </c>
       <c r="T14">
-        <v>0.0779961317556299</v>
+        <v>0.1495422955191614</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H15">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="I15">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J15">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N15">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O15">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P15">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q15">
-        <v>887.312319477207</v>
+        <v>531.7704909156664</v>
       </c>
       <c r="R15">
-        <v>5323.873916863242</v>
+        <v>3190.622945493998</v>
       </c>
       <c r="S15">
-        <v>0.03673998862420716</v>
+        <v>0.03258955505832289</v>
       </c>
       <c r="T15">
-        <v>0.02547285516889156</v>
+        <v>0.0222340383213145</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H16">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="I16">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J16">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N16">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O16">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P16">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q16">
-        <v>1710.69766563236</v>
+        <v>2925.275864816413</v>
       </c>
       <c r="R16">
-        <v>15396.27899069124</v>
+        <v>26327.48278334772</v>
       </c>
       <c r="S16">
-        <v>0.07083302169389653</v>
+        <v>0.1792755342498622</v>
       </c>
       <c r="T16">
-        <v>0.07366575373385204</v>
+        <v>0.1834645682390621</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="H17">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="I17">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J17">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N17">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O17">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P17">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q17">
-        <v>146.125092719176</v>
+        <v>59.073858104545</v>
       </c>
       <c r="R17">
-        <v>876.750556315056</v>
+        <v>354.44314862727</v>
       </c>
       <c r="S17">
-        <v>0.00605044483928373</v>
+        <v>0.003620341451987299</v>
       </c>
       <c r="T17">
-        <v>0.004194941557409579</v>
+        <v>0.002469957335584176</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="H18">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="I18">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J18">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>143.942475</v>
       </c>
       <c r="O18">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P18">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q18">
-        <v>64.237640145675</v>
+        <v>44.659448351025</v>
       </c>
       <c r="R18">
-        <v>385.42584087405</v>
+        <v>267.95669010615</v>
       </c>
       <c r="S18">
-        <v>0.002659819002162111</v>
+        <v>0.002736954336078182</v>
       </c>
       <c r="T18">
-        <v>0.001844126434293451</v>
+        <v>0.00186727150717908</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="H19">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="I19">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J19">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N19">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O19">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P19">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q19">
-        <v>83.36480497698</v>
+        <v>60.070571967743</v>
       </c>
       <c r="R19">
-        <v>500.18882986188</v>
+        <v>360.423431806458</v>
       </c>
       <c r="S19">
-        <v>0.003451796982057083</v>
+        <v>0.003681425062072833</v>
       </c>
       <c r="T19">
-        <v>0.002393226777931657</v>
+        <v>0.002511631280656929</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="H20">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="I20">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J20">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N20">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O20">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P20">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q20">
-        <v>40.839325404267</v>
+        <v>13.3969930828995</v>
       </c>
       <c r="R20">
-        <v>163.357301617068</v>
+        <v>53.587972331598</v>
       </c>
       <c r="S20">
-        <v>0.001690990103301059</v>
+        <v>0.0008210347342503533</v>
       </c>
       <c r="T20">
-        <v>0.0007816069557342598</v>
+        <v>0.0003734308474352857</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="H21">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="I21">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J21">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N21">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O21">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P21">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q21">
-        <v>78.73635596116</v>
+        <v>73.69702004155299</v>
       </c>
       <c r="R21">
-        <v>472.41813576696</v>
+        <v>442.182120249318</v>
       </c>
       <c r="S21">
-        <v>0.003260151762604771</v>
+        <v>0.004516521945666614</v>
       </c>
       <c r="T21">
-        <v>0.002260353821196371</v>
+        <v>0.003081371373106966</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="H22">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="I22">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="J22">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N22">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O22">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P22">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q22">
-        <v>5085.498029510495</v>
+        <v>1274.758070604981</v>
       </c>
       <c r="R22">
-        <v>45769.48226559446</v>
+        <v>11472.82263544483</v>
       </c>
       <c r="S22">
-        <v>0.2105697572898886</v>
+        <v>0.07812354960969604</v>
       </c>
       <c r="T22">
-        <v>0.2189907971362251</v>
+        <v>0.07994902014052623</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="H23">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="I23">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="J23">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>143.942475</v>
       </c>
       <c r="O23">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P23">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q23">
-        <v>2235.621454893108</v>
+        <v>963.7087205898167</v>
       </c>
       <c r="R23">
-        <v>20120.59309403797</v>
+        <v>8673.378485308349</v>
       </c>
       <c r="S23">
-        <v>0.0925679774954552</v>
+        <v>0.05906088988835703</v>
       </c>
       <c r="T23">
-        <v>0.09626992708696684</v>
+        <v>0.06044093360826529</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="H24">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="I24">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="J24">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N24">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O24">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P24">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q24">
-        <v>2901.291924281006</v>
+        <v>1296.266214510987</v>
       </c>
       <c r="R24">
-        <v>26111.62731852906</v>
+        <v>11666.39593059888</v>
       </c>
       <c r="S24">
-        <v>0.1201306799801808</v>
+        <v>0.07944167623011109</v>
       </c>
       <c r="T24">
-        <v>0.1249349085451019</v>
+        <v>0.08129794670940101</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="H25">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="I25">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="J25">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N25">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O25">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P25">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q25">
-        <v>1421.304890249578</v>
+        <v>289.0944590759904</v>
       </c>
       <c r="R25">
-        <v>8527.829341497465</v>
+        <v>1734.566754455942</v>
       </c>
       <c r="S25">
-        <v>0.0588504457258816</v>
+        <v>0.01771715420855726</v>
       </c>
       <c r="T25">
-        <v>0.04080264955804528</v>
+        <v>0.0120874275488796</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="H26">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="I26">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="J26">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N26">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O26">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P26">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q26">
-        <v>2740.210977048502</v>
+        <v>1590.312095601536</v>
       </c>
       <c r="R26">
-        <v>24661.89879343652</v>
+        <v>14312.80886041382</v>
       </c>
       <c r="S26">
-        <v>0.1134609741291614</v>
+        <v>0.09746227834169617</v>
       </c>
       <c r="T26">
-        <v>0.1179984699046371</v>
+        <v>0.09973962643800251</v>
       </c>
     </row>
   </sheetData>
